--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>54321</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01:19:33</t>
+          <t>14:29:47</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01:20:19</t>
+          <t>14:29:47</t>
         </is>
       </c>
     </row>
